--- a/Data_Validades.xlsx
+++ b/Data_Validades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t xml:space="preserve">__Produto__</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t xml:space="preserve">Purur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraldinha Montana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peito S/O Zimmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picanha Frigon</t>
   </si>
 </sst>
 </file>
@@ -183,10 +192,10 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.11"/>
@@ -313,6 +322,30 @@
       </c>
       <c r="B14" s="1" t="n">
         <v>44639</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44646</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44655</v>
       </c>
     </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
